--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.637903</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H2">
-        <v>1.913709</v>
+        <v>3.290317</v>
       </c>
       <c r="I2">
-        <v>0.1229013127714845</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J2">
-        <v>0.1229013127714844</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>9.557669333333331</v>
+        <v>0.4025163333333333</v>
       </c>
       <c r="N2">
-        <v>28.673008</v>
+        <v>1.207549</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.04753623304791887</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.04753623304791887</v>
       </c>
       <c r="Q2">
-        <v>6.096865940741332</v>
+        <v>0.4414687781147777</v>
       </c>
       <c r="R2">
-        <v>54.87179346667199</v>
+        <v>3.973219003033</v>
       </c>
       <c r="S2">
-        <v>0.1229013127714845</v>
+        <v>0.01153317251117278</v>
       </c>
       <c r="T2">
-        <v>0.1229013127714844</v>
+        <v>0.01153317251117278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.170281</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H3">
-        <v>0.510843</v>
+        <v>3.290317</v>
       </c>
       <c r="I3">
-        <v>0.03280711713229307</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J3">
-        <v>0.03280711713229307</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.557669333333331</v>
+        <v>8.065052666666666</v>
       </c>
       <c r="N3">
-        <v>28.673008</v>
+        <v>24.195158</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9524637669520812</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9524637669520811</v>
       </c>
       <c r="Q3">
-        <v>1.627489491749333</v>
+        <v>8.845526631676222</v>
       </c>
       <c r="R3">
-        <v>14.647405425744</v>
+        <v>79.609739685086</v>
       </c>
       <c r="S3">
-        <v>0.03280711713229307</v>
+        <v>0.2310853896190401</v>
       </c>
       <c r="T3">
-        <v>0.03280711713229307</v>
+        <v>0.23108538961904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.975059</v>
+        <v>0.170281</v>
       </c>
       <c r="H4">
-        <v>2.925177</v>
+        <v>0.510843</v>
       </c>
       <c r="I4">
-        <v>0.1878593314808848</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J4">
-        <v>0.1878593314808848</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>9.557669333333331</v>
+        <v>0.4025163333333333</v>
       </c>
       <c r="N4">
-        <v>28.673008</v>
+        <v>1.207549</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.04753623304791887</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.04753623304791887</v>
       </c>
       <c r="Q4">
-        <v>9.319291502490664</v>
+        <v>0.06854088375633334</v>
       </c>
       <c r="R4">
-        <v>83.873623522416</v>
+        <v>0.6168679538070001</v>
       </c>
       <c r="S4">
-        <v>0.1878593314808848</v>
+        <v>0.001790599642868768</v>
       </c>
       <c r="T4">
-        <v>0.1878593314808848</v>
+        <v>0.001790599642868768</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.407124666666667</v>
+        <v>0.170281</v>
       </c>
       <c r="H5">
-        <v>10.221374</v>
+        <v>0.510843</v>
       </c>
       <c r="I5">
-        <v>0.6564322386153376</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J5">
-        <v>0.6564322386153377</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.557669333333331</v>
+        <v>8.065052666666666</v>
       </c>
       <c r="N5">
-        <v>28.673008</v>
+        <v>24.195158</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9524637669520812</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9524637669520811</v>
       </c>
       <c r="Q5">
-        <v>32.56417094144355</v>
+        <v>1.373325233132667</v>
       </c>
       <c r="R5">
-        <v>293.077538472992</v>
+        <v>12.359927098194</v>
       </c>
       <c r="S5">
-        <v>0.6564322386153376</v>
+        <v>0.03587750167815421</v>
       </c>
       <c r="T5">
-        <v>0.6564322386153377</v>
+        <v>0.0358775016781542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.5018676666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.505603</v>
+      </c>
+      <c r="I6">
+        <v>0.1110188577571507</v>
+      </c>
+      <c r="J6">
+        <v>0.1110188577571507</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.4025163333333333</v>
+      </c>
+      <c r="N6">
+        <v>1.207549</v>
+      </c>
+      <c r="O6">
+        <v>0.04753623304791887</v>
+      </c>
+      <c r="P6">
+        <v>0.04753623304791887</v>
+      </c>
+      <c r="Q6">
+        <v>0.2020099330052222</v>
+      </c>
+      <c r="R6">
+        <v>1.818089397047</v>
+      </c>
+      <c r="S6">
+        <v>0.005277418295057673</v>
+      </c>
+      <c r="T6">
+        <v>0.005277418295057671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5018676666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.505603</v>
+      </c>
+      <c r="I7">
+        <v>0.1110188577571507</v>
+      </c>
+      <c r="J7">
+        <v>0.1110188577571507</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>8.065052666666666</v>
+      </c>
+      <c r="N7">
+        <v>24.195158</v>
+      </c>
+      <c r="O7">
+        <v>0.9524637669520812</v>
+      </c>
+      <c r="P7">
+        <v>0.9524637669520811</v>
+      </c>
+      <c r="Q7">
+        <v>4.047589163363778</v>
+      </c>
+      <c r="R7">
+        <v>36.428302470274</v>
+      </c>
+      <c r="S7">
+        <v>0.1057414394620931</v>
+      </c>
+      <c r="T7">
+        <v>0.105741439462093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.751641333333334</v>
+      </c>
+      <c r="H8">
+        <v>8.254924000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.6086944787916135</v>
+      </c>
+      <c r="J8">
+        <v>0.6086944787916135</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.4025163333333333</v>
+      </c>
+      <c r="N8">
+        <v>1.207549</v>
+      </c>
+      <c r="O8">
+        <v>0.04753623304791887</v>
+      </c>
+      <c r="P8">
+        <v>0.04753623304791887</v>
+      </c>
+      <c r="Q8">
+        <v>1.107580580141778</v>
+      </c>
+      <c r="R8">
+        <v>9.968225221276001</v>
+      </c>
+      <c r="S8">
+        <v>0.02893504259881965</v>
+      </c>
+      <c r="T8">
+        <v>0.02893504259881965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.751641333333334</v>
+      </c>
+      <c r="H9">
+        <v>8.254924000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.6086944787916135</v>
+      </c>
+      <c r="J9">
+        <v>0.6086944787916135</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.065052666666666</v>
+      </c>
+      <c r="N9">
+        <v>24.195158</v>
+      </c>
+      <c r="O9">
+        <v>0.9524637669520812</v>
+      </c>
+      <c r="P9">
+        <v>0.9524637669520811</v>
+      </c>
+      <c r="Q9">
+        <v>22.19213227311023</v>
+      </c>
+      <c r="R9">
+        <v>199.729190457992</v>
+      </c>
+      <c r="S9">
+        <v>0.5797594361927939</v>
+      </c>
+      <c r="T9">
+        <v>0.5797594361927939</v>
       </c>
     </row>
   </sheetData>
